--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,115 +40,127 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
+    <t>2020</t>
   </si>
   <si>
     <t>love</t>
@@ -157,12 +169,12 @@
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -172,22 +184,31 @@
     <t>many</t>
   </si>
   <si>
-    <t>real</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>please</t>
+    <t>true</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>dilemma</t>
@@ -196,16 +217,10 @@
     <t>watch</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -566,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -706,16 +721,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9807692307692307</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.7719298245614035</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.6896551724137931</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -1003,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1085,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.4833333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.725</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.4814814814814815</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,49 +1200,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>9</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14">
-        <v>0.4242424242424243</v>
-      </c>
-      <c r="L14">
-        <v>14</v>
-      </c>
-      <c r="M14">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6875</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1253,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.4166666666666667</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.65</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.3611111111111111</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,16 +1371,16 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.2542372881355932</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6470588235294118</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.2349726775956284</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L18">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>840</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.2195121951219512</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5797101449275363</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.2037037037037037</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.1639344262295082</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5652173913043478</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.1506849315068493</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1653,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23">
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="L23">
         <v>11</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23">
-        <v>0.1473684210526316</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
       <c r="M23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1700,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.04985337243401759</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>324</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,13 +1750,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4615384615384616</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1753,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.04074074074074074</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1777,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>518</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1785,13 +1800,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1803,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.03492063492063492</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1827,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>304</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1835,13 +1850,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3214285714285715</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1853,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.03409090909090909</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1877,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>595</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1885,13 +1900,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.141025641025641</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1903,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.03180212014134275</v>
+        <v>0.04985337243401759</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1927,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1935,63 +1950,87 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0505050505050505</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>66</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29">
+        <v>0.04240282685512368</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.0472972972972973</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
         <v>17</v>
       </c>
-      <c r="E29">
-        <v>0.12</v>
-      </c>
-      <c r="F29">
-        <v>0.88</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
+      <c r="E30">
+        <v>0.18</v>
+      </c>
+      <c r="F30">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>282</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29">
-        <v>0.03012048192771084</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.02534562211981567</v>
+        <v>0.04066265060240964</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2003,33 +2042,111 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1692</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K31">
+        <v>0.03174603174603174</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32">
+        <v>0.03084415584415584</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
         <v>0.02176696542893726</v>
       </c>
-      <c r="L31">
+      <c r="L33">
         <v>17</v>
       </c>
-      <c r="M31">
+      <c r="M33">
         <v>17</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>764</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>0.02131336405529954</v>
+      </c>
+      <c r="L34">
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
